--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2315.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2315.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>3.297916387514766</v>
+        <v>0.9987039566040039</v>
       </c>
       <c r="B1">
-        <v>1.911116357101488</v>
+        <v>1.834736466407776</v>
       </c>
       <c r="C1">
-        <v>1.420766785792401</v>
+        <v>1.976743698120117</v>
       </c>
       <c r="D1">
-        <v>1.322326435068774</v>
+        <v>2.052458047866821</v>
       </c>
       <c r="E1">
-        <v>1.383356413995635</v>
+        <v>1.394486784934998</v>
       </c>
     </row>
   </sheetData>
